--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H2">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I2">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J2">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P2">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q2">
-        <v>83.77002368077203</v>
+        <v>98.20013738681668</v>
       </c>
       <c r="R2">
-        <v>753.930213126948</v>
+        <v>883.8012364813501</v>
       </c>
       <c r="S2">
-        <v>0.7026116307767509</v>
+        <v>0.8546698344861657</v>
       </c>
       <c r="T2">
-        <v>0.7502013122682666</v>
+        <v>0.8642973204751938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H3">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I3">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J3">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N3">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O3">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P3">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q3">
-        <v>0.8824136235200001</v>
+        <v>2.242443056329167</v>
       </c>
       <c r="R3">
-        <v>7.941722611679999</v>
+        <v>13.454658337975</v>
       </c>
       <c r="S3">
-        <v>0.007401144798569733</v>
+        <v>0.01951675921030632</v>
       </c>
       <c r="T3">
-        <v>0.007902443251666983</v>
+        <v>0.01315773804042014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.162907</v>
+      </c>
+      <c r="H4">
+        <v>0.488721</v>
+      </c>
+      <c r="I4">
+        <v>0.003351874396568939</v>
+      </c>
+      <c r="J4">
+        <v>0.003364406599215795</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>36.243714</v>
-      </c>
-      <c r="H4">
-        <v>108.731142</v>
-      </c>
-      <c r="I4">
-        <v>0.8649908629189639</v>
-      </c>
-      <c r="J4">
-        <v>0.8684205217155003</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N4">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O4">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P4">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q4">
-        <v>18.47751656548201</v>
+        <v>0.3765266232860001</v>
       </c>
       <c r="R4">
-        <v>110.865099392892</v>
+        <v>3.388739609574</v>
       </c>
       <c r="S4">
-        <v>0.1549780873436432</v>
+        <v>0.003277041716712331</v>
       </c>
       <c r="T4">
-        <v>0.1103167661955668</v>
+        <v>0.00331395617413211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,45 +732,45 @@
         <v>0.488721</v>
       </c>
       <c r="I5">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J5">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N5">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O5">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P5">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q5">
-        <v>0.3765266232860001</v>
+        <v>0.008598150006499999</v>
       </c>
       <c r="R5">
-        <v>3.388739609574</v>
+        <v>0.051588900039</v>
       </c>
       <c r="S5">
-        <v>0.003158074609432912</v>
+        <v>7.483267985660805E-05</v>
       </c>
       <c r="T5">
-        <v>0.003371979074155769</v>
+        <v>5.045042508368477E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.162907</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H6">
-        <v>0.488721</v>
+        <v>11.353799</v>
       </c>
       <c r="I6">
-        <v>0.003887931201132964</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J6">
-        <v>0.003903346713615139</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02434666666666667</v>
+        <v>2.311298</v>
       </c>
       <c r="N6">
-        <v>0.07303999999999999</v>
+        <v>6.933894</v>
       </c>
       <c r="O6">
-        <v>0.008556327142686945</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P6">
-        <v>0.009099788701510982</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q6">
-        <v>0.003966242426666666</v>
+        <v>8.747337640367334</v>
       </c>
       <c r="R6">
-        <v>0.03569618183999999</v>
+        <v>78.72603876330601</v>
       </c>
       <c r="S6">
-        <v>3.326641126515344E-05</v>
+        <v>0.07613111154660174</v>
       </c>
       <c r="T6">
-        <v>3.551963032263507E-05</v>
+        <v>0.07698869558685829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.162907</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H7">
-        <v>0.488721</v>
+        <v>11.353799</v>
       </c>
       <c r="I7">
-        <v>0.003887931201132964</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J7">
-        <v>0.003903346713615139</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.5098130000000001</v>
+        <v>0.0527795</v>
       </c>
       <c r="N7">
-        <v>1.019626</v>
+        <v>0.105559</v>
       </c>
       <c r="O7">
-        <v>0.1791673114565167</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P7">
-        <v>0.1270315054020652</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q7">
-        <v>0.08305210639100001</v>
+        <v>0.1997492781068334</v>
       </c>
       <c r="R7">
-        <v>0.498312638346</v>
+        <v>1.198495668641</v>
       </c>
       <c r="S7">
-        <v>0.0006965901804348989</v>
+        <v>0.001738487205835797</v>
       </c>
       <c r="T7">
-        <v>0.0004958480091367349</v>
+        <v>0.001172047008139031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.035480333333334</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H8">
-        <v>9.106441</v>
+        <v>1.086231</v>
       </c>
       <c r="I8">
-        <v>0.07244463834207344</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J8">
-        <v>0.07273187882264147</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,27 +936,27 @@
         <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P8">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q8">
-        <v>7.015899623472668</v>
+        <v>1.255301768919</v>
       </c>
       <c r="R8">
-        <v>63.14309661125401</v>
+        <v>7.531810613514001</v>
       </c>
       <c r="S8">
-        <v>0.05884506723549603</v>
+        <v>0.01092532641625637</v>
       </c>
       <c r="T8">
-        <v>0.06283079403593081</v>
+        <v>0.007365596994980154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.035480333333334</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H9">
-        <v>9.106441</v>
+        <v>1.086231</v>
       </c>
       <c r="I9">
-        <v>0.07244463834207344</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J9">
-        <v>0.07273187882264147</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N9">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O9">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P9">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q9">
-        <v>0.0739038278488889</v>
+        <v>0.02866536453225</v>
       </c>
       <c r="R9">
-        <v>0.66513445064</v>
+        <v>0.114661458129</v>
       </c>
       <c r="S9">
-        <v>0.0006198600253884223</v>
+        <v>0.0002494846037104705</v>
       </c>
       <c r="T9">
-        <v>0.0006618447291499388</v>
+        <v>0.0001121310843795867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.035480333333334</v>
+        <v>1.624131</v>
       </c>
       <c r="H10">
-        <v>9.106441</v>
+        <v>4.872393</v>
       </c>
       <c r="I10">
-        <v>0.07244463834207344</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J10">
-        <v>0.07273187882264147</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N10">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O10">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P10">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q10">
-        <v>1.547527335177667</v>
+        <v>3.753850732038</v>
       </c>
       <c r="R10">
-        <v>9.285164011066001</v>
+        <v>33.784656588342</v>
       </c>
       <c r="S10">
-        <v>0.01297971108118899</v>
+        <v>0.03267106410654984</v>
       </c>
       <c r="T10">
-        <v>0.00923924005756073</v>
+        <v>0.03303908951149648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.496436</v>
+        <v>1.624131</v>
       </c>
       <c r="H11">
-        <v>0.992872</v>
+        <v>4.872393</v>
       </c>
       <c r="I11">
-        <v>0.01184791944953651</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J11">
-        <v>0.007929930693054914</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N11">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O11">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P11">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q11">
-        <v>1.147411533928</v>
+        <v>0.08572082211449999</v>
       </c>
       <c r="R11">
-        <v>6.884469203568</v>
+        <v>0.514324932687</v>
       </c>
       <c r="S11">
-        <v>0.00962378490063924</v>
+        <v>0.0007460580280048905</v>
       </c>
       <c r="T11">
-        <v>0.006850418965657681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.496436</v>
-      </c>
-      <c r="H12">
-        <v>0.992872</v>
-      </c>
-      <c r="I12">
-        <v>0.01184791944953651</v>
-      </c>
-      <c r="J12">
-        <v>0.007929930693054914</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P12">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q12">
-        <v>0.01208656181333333</v>
-      </c>
-      <c r="R12">
-        <v>0.07251937087999999</v>
-      </c>
-      <c r="S12">
-        <v>0.0001013746747704378</v>
-      </c>
-      <c r="T12">
-        <v>7.216069372442625E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.496436</v>
-      </c>
-      <c r="H13">
-        <v>0.992872</v>
-      </c>
-      <c r="I13">
-        <v>0.01184791944953651</v>
-      </c>
-      <c r="J13">
-        <v>0.007929930693054914</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N13">
-        <v>1.019626</v>
-      </c>
-      <c r="O13">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P13">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q13">
-        <v>0.253089526468</v>
-      </c>
-      <c r="R13">
-        <v>1.012358105872</v>
-      </c>
-      <c r="S13">
-        <v>0.00212275987412683</v>
-      </c>
-      <c r="T13">
-        <v>0.001007351033672808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.962152666666667</v>
-      </c>
-      <c r="H14">
-        <v>5.886458</v>
-      </c>
-      <c r="I14">
-        <v>0.04682864808829321</v>
-      </c>
-      <c r="J14">
-        <v>0.04701432205518803</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.311298</v>
-      </c>
-      <c r="N14">
-        <v>6.933894</v>
-      </c>
-      <c r="O14">
-        <v>0.8122763614007963</v>
-      </c>
-      <c r="P14">
-        <v>0.8638687058964239</v>
-      </c>
-      <c r="Q14">
-        <v>4.535119534161334</v>
-      </c>
-      <c r="R14">
-        <v>40.816075807452</v>
-      </c>
-      <c r="S14">
-        <v>0.03803780387847717</v>
-      </c>
-      <c r="T14">
-        <v>0.04061420155241298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.962152666666667</v>
-      </c>
-      <c r="H15">
-        <v>5.886458</v>
-      </c>
-      <c r="I15">
-        <v>0.04682864808829321</v>
-      </c>
-      <c r="J15">
-        <v>0.04701432205518803</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P15">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q15">
-        <v>0.04777187692444444</v>
-      </c>
-      <c r="R15">
-        <v>0.42994689232</v>
-      </c>
-      <c r="S15">
-        <v>0.0004006812326931983</v>
-      </c>
-      <c r="T15">
-        <v>0.0004278203966469986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.962152666666667</v>
-      </c>
-      <c r="H16">
-        <v>5.886458</v>
-      </c>
-      <c r="I16">
-        <v>0.04682864808829321</v>
-      </c>
-      <c r="J16">
-        <v>0.04701432205518803</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.019626</v>
-      </c>
-      <c r="O16">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P16">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q16">
-        <v>1.000330937451333</v>
-      </c>
-      <c r="R16">
-        <v>6.001985624708001</v>
-      </c>
-      <c r="S16">
-        <v>0.008390162977122846</v>
-      </c>
-      <c r="T16">
-        <v>0.00597230010612805</v>
+        <v>0.0005029746993167269</v>
       </c>
     </row>
   </sheetData>
